--- a/myapp/files/9_MethodComparePercent/Scenario 356.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 356.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>5913</v>
+        <v>9474</v>
       </c>
       <c r="F2" t="n">
-        <v>6.49166721559845</v>
+        <v>2.15730521291833</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>6.89655172413793</v>
+        <v>3.08880308880309</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6460</v>
+        <v>16628</v>
       </c>
       <c r="F3" t="n">
-        <v>7.09219858156028</v>
+        <v>3.78632795866645</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -631,10 +631,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>6.89655172413793</v>
+        <v>5.40540540540541</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>15175</v>
+        <v>29341</v>
       </c>
       <c r="F4" t="n">
-        <v>16.6600794853216</v>
+        <v>6.68117925398318</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>15.5172413793103</v>
+        <v>6.94980694980695</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>16760</v>
+        <v>36229</v>
       </c>
       <c r="F5" t="n">
-        <v>18.4001932239861</v>
+        <v>8.24963168237472</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>12.0689655172414</v>
+        <v>6.56370656370656</v>
       </c>
       <c r="K5" t="n">
         <v>7</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3685</v>
+        <v>22773</v>
       </c>
       <c r="F6" t="n">
-        <v>4.04562720945041</v>
+        <v>5.18559337278753</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -745,10 +745,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>6.89655172413793</v>
+        <v>4.24710424710425</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3881</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.883734592710157</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.31660231660232</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>297</v>
+        <v>25764</v>
       </c>
       <c r="F8" t="n">
-        <v>0.32606547658257</v>
+        <v>5.86666788110912</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -821,10 +821,10 @@
         <v>14.0845070422535</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>1.72413793103448</v>
+        <v>7.33590733590734</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4746</v>
+        <v>39944</v>
       </c>
       <c r="F9" t="n">
-        <v>5.21046044397602</v>
+        <v>9.09556675372701</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -859,10 +859,10 @@
         <v>8.45070422535211</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>6.89655172413793</v>
+        <v>8.49420849420849</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2586</v>
+        <v>19456</v>
       </c>
       <c r="F10" t="n">
-        <v>2.83907515973915</v>
+        <v>4.43028606951013</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -897,10 +897,10 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>5.17241379310345</v>
+        <v>8.10810810810811</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>348</v>
+        <v>10496</v>
       </c>
       <c r="F11" t="n">
-        <v>0.382056518015941</v>
+        <v>2.3900227480252</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.72413793103448</v>
+        <v>3.86100386100386</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1104</v>
+        <v>3270</v>
       </c>
       <c r="F12" t="n">
-        <v>1.21204136749885</v>
+        <v>0.744605029158004</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.72413793103448</v>
+        <v>1.15830115830116</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4674</v>
+        <v>32875</v>
       </c>
       <c r="F13" t="n">
-        <v>5.13141426783479</v>
+        <v>7.48589918457779</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>6.89655172413793</v>
+        <v>6.56370656370656</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>12325</v>
+        <v>70250</v>
       </c>
       <c r="F14" t="n">
-        <v>13.5311683463979</v>
+        <v>15.9964841890978</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
@@ -1049,10 +1049,10 @@
         <v>18.3098591549296</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>15.5172413793103</v>
+        <v>9.65250965250965</v>
       </c>
       <c r="K14" t="n">
         <v>15</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>10205</v>
+        <v>29784</v>
       </c>
       <c r="F15" t="n">
-        <v>11.2036976044617</v>
+        <v>6.78205388025749</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1087,10 +1087,10 @@
         <v>8.45070422535211</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>5.17241379310345</v>
+        <v>6.17760617760618</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>5208</v>
+        <v>9977</v>
       </c>
       <c r="F16" t="n">
-        <v>5.71767340754891</v>
+        <v>2.27184231679187</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.44827586206897</v>
+        <v>1.54440154440154</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.175107421230124</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.772200772200772</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1400</v>
+        <v>11161</v>
       </c>
       <c r="F18" t="n">
-        <v>1.5370089805239</v>
+        <v>2.54144854141666</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>1.72413793103448</v>
+        <v>3.86100386100386</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>200</v>
+        <v>18998</v>
       </c>
       <c r="F19" t="n">
-        <v>0.219572711503414</v>
+        <v>4.32599582383601</v>
       </c>
       <c r="G19" t="n">
         <v>8</v>
@@ -1239,10 +1239,10 @@
         <v>11.2676056338028</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>1.72413793103448</v>
+        <v>4.63320463320463</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>14860</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.38374028540916</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1277,10 +1277,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.86100386100386</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>6554</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.49239796975583</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.772200772200772</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.26755685298491</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.772200772200772</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>9099</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.07191472792314</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1391,10 +1391,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.772200772200772</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>5651</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.28677768188743</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.15830115830116</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>6418</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.46142968719758</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.15830115830116</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4332</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.986430882664365</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.772200772200772</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
